--- a/mysite/web/files/批量导入客户模板.xlsx
+++ b/mysite/web/files/批量导入客户模板.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,52 +21,56 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>客户姓名</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>公司</t>
-  </si>
-  <si>
     <t>李大庆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>li@126.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国成品油生产公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张树田</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zh@163.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘国梁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>出生年月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>root@126.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国石油总公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>1982.06.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上海科技有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>1983.03.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1986.05.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -80,11 +84,6 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Helvetica"/>
     </font>
@@ -95,10 +94,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color theme="10"/>
-      <name val="Helvetica"/>
+      <color indexed="9"/>
+      <name val="Kaiti SC Black"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -169,11 +173,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
@@ -184,27 +185,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1387,173 +1387,168 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IU19"/>
+  <dimension ref="A1:IR19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="255" width="19.6640625" style="1" customWidth="1"/>
+    <col min="1" max="252" width="19.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>13309585638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4">
-        <v>36</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>13309585639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4">
-        <v>23</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
+      <c r="D4" s="3">
+        <v>13309685658</v>
       </c>
-      <c r="B4" s="4">
-        <v>28</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
